--- a/fuentes/contenidos/grado07/guion01/SolicitudGrafica_MA_07_01_REC30.xlsx
+++ b/fuentes/contenidos/grado07/guion01/SolicitudGrafica_MA_07_01_REC30.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Matematicas\fuentes\contenidos\grado07\guion01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="708" yWindow="960" windowWidth="9996" windowHeight="7008" tabRatio="500"/>
+    <workbookView xWindow="705" yWindow="960" windowWidth="9990" windowHeight="7005" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
     <sheet name="Ayuda" sheetId="2" r:id="rId2"/>
     <sheet name="Definición técnica de imagenes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="152511" iterateCount="2" iterateDelta="10"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -517,31 +522,26 @@
     <t>Ilustración</t>
   </si>
   <si>
-    <t>MT_07_01_REC30</t>
-  </si>
-  <si>
     <t>1 Eso/Matemáticas/Los números enteros/La representación de los números enteros sobre la recta numérica/La ordenación y comparación de los números enteros/¿Mayor o menor en la recta?</t>
   </si>
   <si>
     <t>Ejercicios para establecer relaciones de orden con números enteros usando la recta numérica.</t>
   </si>
   <si>
-    <t>Quitar el signo + a todos los números que lo posean, por favor unificar la recta numérica con las que se han empleado en todo el guion. Adicional a esto, cambiar el título y la instrucción de la actividad por lo siguiente:
-Título: 
-¿Mayor o menor?
-Instrucción:
-Usa la recta numérica para comparar cada uno de los números presentados a continuación. Después elije la opción que presenta una relación de orden correcta
-Ver manuscrito guion</t>
+    <t>MA_07_01_REC30</t>
+  </si>
+  <si>
+    <t>Unificar la recta numérica con las elaboradas en la solicitud gráfica de imágenes (hacer puntas de flecha, unificar fuente, color y forma).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -707,6 +707,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1393,9 +1399,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1406,9 +1409,6 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1461,9 +1461,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1549,6 +1546,15 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -1667,7 +1673,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" sel="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1680,6 +1686,452 @@
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$J$20" fmlaRange="$J$4:$J$19" noThreeD="1" sel="4" val="0"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>1455965</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>136071</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>6204858</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>3162300</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2050" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2050"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>962025</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>2028825</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>1419225</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="Drop Down 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>2019300</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>962025</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1657350</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>1419225</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1031" name="Drop Down 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1031"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>962025</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>1666875</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>1419225</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1032" name="Drop Down 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1032"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>962025</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1666875</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>1419225</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Drop Down 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>2066925</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>466725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Drop Down 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>2085975</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1724025</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>466725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="Drop Down 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>466725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Drop Down 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2003,34 +2455,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.8984375" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.8984375" style="48" customWidth="1"/>
-    <col min="2" max="2" width="37.796875" style="48" customWidth="1"/>
-    <col min="3" max="3" width="21.19921875" style="48" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="48" customWidth="1"/>
-    <col min="5" max="5" width="13.09765625" style="48" customWidth="1"/>
-    <col min="6" max="6" width="28.19921875" style="48" customWidth="1"/>
-    <col min="7" max="7" width="20.3984375" style="48" customWidth="1"/>
-    <col min="8" max="8" width="28.59765625" style="48" customWidth="1"/>
-    <col min="9" max="9" width="20.3984375" style="48" customWidth="1"/>
-    <col min="10" max="10" width="34.8984375" style="48" customWidth="1"/>
-    <col min="11" max="11" width="29.59765625" style="48" customWidth="1"/>
-    <col min="12" max="12" width="20.3984375" style="48" customWidth="1"/>
-    <col min="13" max="13" width="14.5" style="48" customWidth="1"/>
-    <col min="14" max="16384" width="10.8984375" style="48"/>
+    <col min="1" max="1" width="7.875" style="47" customWidth="1"/>
+    <col min="2" max="2" width="37.75" style="47" customWidth="1"/>
+    <col min="3" max="3" width="21.25" style="47" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="47" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="47" customWidth="1"/>
+    <col min="6" max="6" width="28.25" style="47" customWidth="1"/>
+    <col min="7" max="7" width="20.375" style="47" customWidth="1"/>
+    <col min="8" max="8" width="28.625" style="47" customWidth="1"/>
+    <col min="9" max="9" width="20.375" style="47" customWidth="1"/>
+    <col min="10" max="10" width="34.875" style="47" customWidth="1"/>
+    <col min="11" max="11" width="90.375" style="47" customWidth="1"/>
+    <col min="12" max="12" width="20.375" style="47" customWidth="1"/>
+    <col min="13" max="13" width="14.5" style="47" customWidth="1"/>
+    <col min="14" max="16384" width="10.875" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.2" thickBot="1">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2042,54 +2494,54 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="15.6">
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="F2" s="81" t="s">
+      <c r="D2" s="86"/>
+      <c r="F2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="82"/>
+      <c r="G2" s="79"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="15.6">
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="90">
+      <c r="C3" s="87">
         <v>7</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="F3" s="83">
+      <c r="D3" s="88"/>
+      <c r="F3" s="80">
         <v>42069</v>
       </c>
-      <c r="G3" s="84"/>
+      <c r="G3" s="81"/>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.6">
+      <c r="J3"/>
+    </row>
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="91"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="51" t="s">
         <v>56</v>
       </c>
       <c r="H4" s="22"/>
@@ -2097,21 +2549,21 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="16.2" thickBot="1">
+    <row r="5" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="93" t="s">
+      <c r="C5" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="94"/>
+      <c r="D5" s="91"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="54" t="str">
+      <c r="F5" s="53" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
         <v>Motor del recurso</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="53" t="s">
         <v>58</v>
       </c>
       <c r="H5" s="22"/>
@@ -2119,7 +2571,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="16.2" thickBot="1">
+    <row r="6" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2132,15 +2584,15 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" s="57" t="s">
+      <c r="C7" s="110" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="55" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="1"/>
@@ -2150,26 +2602,26 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:16" s="60" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A8" s="58"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
+    <row r="8" spans="1:16" s="58" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="56"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="85" t="s">
+      <c r="F8" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="59"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-    </row>
-    <row r="9" spans="1:16" ht="13.8" thickBot="1">
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="57"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+    </row>
+    <row r="9" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>2</v>
       </c>
@@ -2200,2558 +2652,2558 @@
       <c r="J9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="79" t="s">
+      <c r="K9" s="77" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="60" customFormat="1" ht="296.39999999999998">
-      <c r="A10" s="61">
+    <row r="10" spans="1:16" s="58" customFormat="1" ht="294.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="59">
         <v>30</v>
       </c>
-      <c r="B10" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="C10" s="62" t="str">
+      <c r="B10" s="112" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="60" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso M7A</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="F10" s="63" t="str">
+      <c r="F10" s="61" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>MT_07_01_REC30_30n.png</v>
-      </c>
-      <c r="G10" s="63" t="str">
+        <v>MA_07_01_REC30_30n.png</v>
+      </c>
+      <c r="G10" s="61" t="str">
         <f>IF(F10&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>286 x 286 px</v>
       </c>
-      <c r="H10" s="63" t="str">
+      <c r="H10" s="61" t="str">
         <f>IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>MT_07_01_REC30_30a.png</v>
-      </c>
-      <c r="I10" s="63" t="str">
+        <v>MA_07_01_REC30_30a.png</v>
+      </c>
+      <c r="I10" s="61" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J10" s="64" t="s">
-        <v>151</v>
-      </c>
-      <c r="K10" s="80" t="s">
+      <c r="J10" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="K10" s="111" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="60" customFormat="1" ht="13.95" customHeight="1">
-      <c r="A11" s="61"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="62" t="str">
+    <row r="11" spans="1:16" s="58" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="59"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="60" t="str">
         <f t="shared" ref="C11:C22" si="0">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v/>
       </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63" t="str">
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61" t="str">
         <f t="shared" ref="F11:F74" si="1">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v/>
       </c>
-      <c r="G11" s="63" t="str">
+      <c r="G11" s="61" t="str">
         <f>IF(F11&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H11" s="63" t="str">
+      <c r="H11" s="61" t="str">
         <f t="shared" ref="H11:H74" si="2">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
-      <c r="I11" s="63" t="str">
+      <c r="I11" s="61" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J11" s="52"/>
-      <c r="K11" s="78"/>
-    </row>
-    <row r="12" spans="1:16" s="60" customFormat="1" ht="15.6">
-      <c r="A12" s="61"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="62" t="str">
+      <c r="J11" s="51"/>
+      <c r="K11" s="76"/>
+    </row>
+    <row r="12" spans="1:16" s="58" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="59"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63" t="str">
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G12" s="63" t="str">
+      <c r="G12" s="61" t="str">
         <f>IF(F12&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H12" s="63" t="str">
+      <c r="H12" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I12" s="63" t="str">
+      <c r="I12" s="61" t="str">
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J12" s="52"/>
-      <c r="K12" s="78"/>
-    </row>
-    <row r="13" spans="1:16" s="60" customFormat="1" ht="15.6">
-      <c r="A13" s="61"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="62" t="str">
+      <c r="J12" s="51"/>
+      <c r="K12" s="76"/>
+    </row>
+    <row r="13" spans="1:16" s="58" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="59"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63" t="str">
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G13" s="63" t="str">
+      <c r="G13" s="61" t="str">
         <f>IF(F13&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H13" s="63" t="str">
+      <c r="H13" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I13" s="63" t="str">
+      <c r="I13" s="61" t="str">
         <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J13" s="52"/>
-      <c r="K13" s="78"/>
-    </row>
-    <row r="14" spans="1:16" s="60" customFormat="1" ht="15.6">
-      <c r="A14" s="61"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="62" t="str">
+      <c r="J13" s="51"/>
+      <c r="K13" s="76"/>
+    </row>
+    <row r="14" spans="1:16" s="58" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="59"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63" t="str">
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G14" s="63" t="str">
+      <c r="G14" s="61" t="str">
         <f>IF(F14&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H14" s="63" t="str">
+      <c r="H14" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I14" s="63" t="str">
+      <c r="I14" s="61" t="str">
         <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J14" s="52"/>
-      <c r="K14" s="78"/>
-    </row>
-    <row r="15" spans="1:16" s="60" customFormat="1" ht="15.6">
-      <c r="A15" s="61"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="62" t="str">
+      <c r="J14" s="51"/>
+      <c r="K14" s="76"/>
+    </row>
+    <row r="15" spans="1:16" s="58" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="59"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63" t="str">
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G15" s="63" t="str">
+      <c r="G15" s="61" t="str">
         <f>IF(F15&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H15" s="63" t="str">
+      <c r="H15" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I15" s="63" t="str">
+      <c r="I15" s="61" t="str">
         <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J15" s="76"/>
-      <c r="K15" s="78"/>
-    </row>
-    <row r="16" spans="1:16" s="60" customFormat="1" ht="15.6">
-      <c r="A16" s="61"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="62" t="str">
+      <c r="J15" s="74"/>
+      <c r="K15" s="76"/>
+    </row>
+    <row r="16" spans="1:16" s="58" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="59"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63" t="str">
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G16" s="63" t="str">
+      <c r="G16" s="61" t="str">
         <f>IF(F16&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H16" s="63" t="str">
+      <c r="H16" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I16" s="63" t="str">
+      <c r="I16" s="61" t="str">
         <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J16" s="77"/>
-      <c r="K16" s="78"/>
-    </row>
-    <row r="17" spans="1:11" s="60" customFormat="1">
-      <c r="A17" s="61"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="62" t="str">
+      <c r="J16" s="75"/>
+      <c r="K16" s="76"/>
+    </row>
+    <row r="17" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="59"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63" t="str">
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G17" s="63" t="str">
+      <c r="G17" s="61" t="str">
         <f>IF(F17&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H17" s="63" t="str">
+      <c r="H17" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I17" s="63" t="str">
+      <c r="I17" s="61" t="str">
         <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J17" s="76"/>
-      <c r="K17" s="52"/>
-    </row>
-    <row r="18" spans="1:11" s="60" customFormat="1">
-      <c r="A18" s="61"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="51"/>
+    </row>
+    <row r="18" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="59"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="62" t="str">
+      <c r="C18" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63" t="str">
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G18" s="63" t="str">
+      <c r="G18" s="61" t="str">
         <f>IF(F18&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H18" s="63" t="str">
+      <c r="H18" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I18" s="63" t="str">
+      <c r="I18" s="61" t="str">
         <f>IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-    </row>
-    <row r="19" spans="1:11" s="60" customFormat="1" ht="13.8">
-      <c r="A19" s="61"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="62" t="str">
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+    </row>
+    <row r="19" spans="1:11" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="59"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63" t="str">
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G19" s="63" t="str">
+      <c r="G19" s="61" t="str">
         <f>IF(F19&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H19" s="63" t="str">
+      <c r="H19" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I19" s="63" t="str">
+      <c r="I19" s="61" t="str">
         <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J19" s="67"/>
-      <c r="K19" s="68"/>
-    </row>
-    <row r="20" spans="1:11" s="60" customFormat="1">
-      <c r="A20" s="61"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="66"/>
+    </row>
+    <row r="20" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="59"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="62" t="str">
+      <c r="C20" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63" t="str">
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G20" s="63" t="str">
+      <c r="G20" s="61" t="str">
         <f>IF(F20&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H20" s="63" t="str">
+      <c r="H20" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I20" s="63" t="str">
+      <c r="I20" s="61" t="str">
         <f>IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J20" s="65"/>
-      <c r="K20" s="66"/>
-    </row>
-    <row r="21" spans="1:11" s="60" customFormat="1">
-      <c r="A21" s="61"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="62" t="str">
+      <c r="J20" s="63"/>
+      <c r="K20" s="64"/>
+    </row>
+    <row r="21" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="59"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63" t="str">
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G21" s="63" t="str">
+      <c r="G21" s="61" t="str">
         <f>IF(F21&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H21" s="63" t="str">
+      <c r="H21" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I21" s="63" t="str">
+      <c r="I21" s="61" t="str">
         <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-    </row>
-    <row r="22" spans="1:11" s="60" customFormat="1">
-      <c r="A22" s="61"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="62" t="str">
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+    </row>
+    <row r="22" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="59"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63" t="str">
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G22" s="63" t="str">
+      <c r="G22" s="61" t="str">
         <f>IF(F22&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H22" s="63" t="str">
+      <c r="H22" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I22" s="63" t="str">
+      <c r="I22" s="61" t="str">
         <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J22" s="63"/>
+      <c r="J22" s="61"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11" s="60" customFormat="1">
-      <c r="A23" s="72" t="str">
+    <row r="23" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="70" t="str">
         <f t="shared" ref="A23:A30" si="3">IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),CONCATENATE(LEFT(A22,3),IF(MID(A22,4,2)+1&lt;10,CONCATENATE("0",MID(A22,4,2)+1))),"")</f>
         <v/>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63" t="str">
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G23" s="63" t="str">
+      <c r="G23" s="61" t="str">
         <f>IF(F23&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H23" s="63" t="str">
+      <c r="H23" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I23" s="63" t="str">
+      <c r="I23" s="61" t="str">
         <f>IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-    </row>
-    <row r="24" spans="1:11" s="60" customFormat="1">
-      <c r="A24" s="72" t="str">
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+    </row>
+    <row r="24" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="70" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63" t="str">
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G24" s="63" t="str">
+      <c r="G24" s="61" t="str">
         <f>IF(F24&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H24" s="63" t="str">
+      <c r="H24" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I24" s="63" t="str">
+      <c r="I24" s="61" t="str">
         <f>IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J24" s="63"/>
+      <c r="J24" s="61"/>
       <c r="K24" s="45"/>
     </row>
-    <row r="25" spans="1:11" s="60" customFormat="1">
-      <c r="A25" s="72" t="str">
+    <row r="25" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="70" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63" t="str">
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G25" s="63" t="str">
+      <c r="G25" s="61" t="str">
         <f>IF(F25&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H25" s="63" t="str">
+      <c r="H25" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I25" s="63" t="str">
+      <c r="I25" s="61" t="str">
         <f>IF(OR(B25&lt;&gt;"",J25&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J25" s="63"/>
-      <c r="K25" s="65"/>
-    </row>
-    <row r="26" spans="1:11" s="60" customFormat="1">
-      <c r="A26" s="72" t="str">
+      <c r="J25" s="61"/>
+      <c r="K25" s="63"/>
+    </row>
+    <row r="26" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="70" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63" t="str">
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G26" s="63" t="str">
+      <c r="G26" s="61" t="str">
         <f>IF(F26&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H26" s="63" t="str">
+      <c r="H26" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I26" s="63" t="str">
+      <c r="I26" s="61" t="str">
         <f>IF(OR(B26&lt;&gt;"",J26&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J26" s="63"/>
-      <c r="K26" s="65"/>
-    </row>
-    <row r="27" spans="1:11" s="60" customFormat="1">
-      <c r="A27" s="72" t="str">
+      <c r="J26" s="61"/>
+      <c r="K26" s="63"/>
+    </row>
+    <row r="27" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="70" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63" t="str">
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G27" s="63" t="str">
+      <c r="G27" s="61" t="str">
         <f>IF(F27&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H27" s="63" t="str">
+      <c r="H27" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I27" s="63" t="str">
+      <c r="I27" s="61" t="str">
         <f>IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-    </row>
-    <row r="28" spans="1:11" s="60" customFormat="1">
-      <c r="A28" s="72" t="str">
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+    </row>
+    <row r="28" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="70" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63" t="str">
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G28" s="63" t="str">
+      <c r="G28" s="61" t="str">
         <f>IF(F28&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H28" s="63" t="str">
+      <c r="H28" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I28" s="63" t="str">
+      <c r="I28" s="61" t="str">
         <f>IF(OR(B28&lt;&gt;"",J28&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-    </row>
-    <row r="29" spans="1:11" s="60" customFormat="1">
-      <c r="A29" s="72" t="str">
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+    </row>
+    <row r="29" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="70" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63" t="str">
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G29" s="63" t="str">
+      <c r="G29" s="61" t="str">
         <f>IF(F29&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H29" s="63" t="str">
+      <c r="H29" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I29" s="63" t="str">
+      <c r="I29" s="61" t="str">
         <f>IF(OR(B29&lt;&gt;"",J29&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-    </row>
-    <row r="30" spans="1:11" s="60" customFormat="1">
-      <c r="A30" s="72" t="str">
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+    </row>
+    <row r="30" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="70" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63" t="str">
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G30" s="63" t="str">
+      <c r="G30" s="61" t="str">
         <f>IF(F30&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H30" s="63" t="str">
+      <c r="H30" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I30" s="63" t="str">
+      <c r="I30" s="61" t="str">
         <f>IF(OR(B30&lt;&gt;"",J30&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-    </row>
-    <row r="31" spans="1:11" s="60" customFormat="1">
-      <c r="A31" s="72"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+    </row>
+    <row r="31" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="70"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63" t="str">
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G31" s="63" t="str">
+      <c r="G31" s="61" t="str">
         <f>IF(F31&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H31" s="63" t="str">
+      <c r="H31" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I31" s="63" t="str">
+      <c r="I31" s="61" t="str">
         <f>IF(OR(B31&lt;&gt;"",J31&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-    </row>
-    <row r="32" spans="1:11" s="60" customFormat="1">
-      <c r="A32" s="72"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+    </row>
+    <row r="32" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="70"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63" t="str">
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G32" s="63" t="str">
+      <c r="G32" s="61" t="str">
         <f>IF(F32&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H32" s="63" t="str">
+      <c r="H32" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I32" s="63" t="str">
+      <c r="I32" s="61" t="str">
         <f>IF(OR(B32&lt;&gt;"",J32&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
-    </row>
-    <row r="33" spans="1:11" s="60" customFormat="1">
-      <c r="A33" s="72"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+    </row>
+    <row r="33" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="70"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63" t="str">
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G33" s="63" t="str">
+      <c r="G33" s="61" t="str">
         <f>IF(F33&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H33" s="63" t="str">
+      <c r="H33" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I33" s="63" t="str">
+      <c r="I33" s="61" t="str">
         <f>IF(OR(B33&lt;&gt;"",J33&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
-    </row>
-    <row r="34" spans="1:11" s="60" customFormat="1">
-      <c r="A34" s="72"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+    </row>
+    <row r="34" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="70"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63" t="str">
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G34" s="63" t="str">
+      <c r="G34" s="61" t="str">
         <f>IF(F34&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H34" s="63" t="str">
+      <c r="H34" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I34" s="63" t="str">
+      <c r="I34" s="61" t="str">
         <f>IF(OR(B34&lt;&gt;"",J34&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J34" s="65"/>
-      <c r="K34" s="65"/>
-    </row>
-    <row r="35" spans="1:11" s="60" customFormat="1">
-      <c r="A35" s="72"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63" t="str">
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+    </row>
+    <row r="35" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="70"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G35" s="63" t="str">
+      <c r="G35" s="61" t="str">
         <f>IF(F35&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H35" s="63" t="str">
+      <c r="H35" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I35" s="63" t="str">
+      <c r="I35" s="61" t="str">
         <f>IF(OR(B35&lt;&gt;"",J35&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J35" s="63"/>
+      <c r="J35" s="61"/>
       <c r="K35" s="45"/>
     </row>
-    <row r="36" spans="1:11" s="60" customFormat="1">
-      <c r="A36" s="72"/>
+    <row r="36" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="70"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63" t="str">
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G36" s="63" t="str">
+      <c r="G36" s="61" t="str">
         <f>IF(F36&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H36" s="63" t="str">
+      <c r="H36" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I36" s="63" t="str">
+      <c r="I36" s="61" t="str">
         <f>IF(OR(B36&lt;&gt;"",J36&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J36" s="63"/>
+      <c r="J36" s="61"/>
       <c r="K36" s="45"/>
     </row>
-    <row r="37" spans="1:11" s="60" customFormat="1">
-      <c r="A37" s="72"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63" t="str">
+    <row r="37" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="70"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G37" s="63" t="str">
+      <c r="G37" s="61" t="str">
         <f>IF(F37&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H37" s="63" t="str">
+      <c r="H37" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I37" s="63" t="str">
+      <c r="I37" s="61" t="str">
         <f>IF(OR(B37&lt;&gt;"",J37&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="45"/>
     </row>
-    <row r="38" spans="1:11" s="60" customFormat="1">
-      <c r="A38" s="72"/>
+    <row r="38" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="70"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63" t="str">
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G38" s="63" t="str">
+      <c r="G38" s="61" t="str">
         <f>IF(F38&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H38" s="63" t="str">
+      <c r="H38" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I38" s="63" t="str">
+      <c r="I38" s="61" t="str">
         <f>IF(OR(B38&lt;&gt;"",J38&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J38" s="65"/>
+      <c r="J38" s="63"/>
       <c r="K38" s="45"/>
     </row>
-    <row r="39" spans="1:11" s="60" customFormat="1">
-      <c r="A39" s="72"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63" t="str">
+    <row r="39" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="70"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G39" s="63" t="str">
+      <c r="G39" s="61" t="str">
         <f>IF(F39&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H39" s="63" t="str">
+      <c r="H39" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I39" s="63" t="str">
+      <c r="I39" s="61" t="str">
         <f>IF(OR(B39&lt;&gt;"",J39&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J39" s="63"/>
+      <c r="J39" s="61"/>
       <c r="K39" s="45"/>
     </row>
-    <row r="40" spans="1:11" s="60" customFormat="1">
-      <c r="A40" s="72"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63" t="str">
+    <row r="40" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="70"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G40" s="63" t="str">
+      <c r="G40" s="61" t="str">
         <f>IF(F40&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H40" s="63" t="str">
+      <c r="H40" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I40" s="63" t="str">
+      <c r="I40" s="61" t="str">
         <f>IF(OR(B40&lt;&gt;"",J40&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J40" s="63"/>
+      <c r="J40" s="61"/>
       <c r="K40" s="45"/>
     </row>
-    <row r="41" spans="1:11" s="60" customFormat="1">
-      <c r="A41" s="72"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63" t="str">
+    <row r="41" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="70"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G41" s="63" t="str">
+      <c r="G41" s="61" t="str">
         <f>IF(F41&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H41" s="63" t="str">
+      <c r="H41" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I41" s="63" t="str">
+      <c r="I41" s="61" t="str">
         <f>IF(OR(B41&lt;&gt;"",J41&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J41" s="63"/>
+      <c r="J41" s="61"/>
       <c r="K41" s="45"/>
     </row>
-    <row r="42" spans="1:11" s="60" customFormat="1">
-      <c r="A42" s="72"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63" t="str">
+    <row r="42" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="70"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G42" s="63" t="str">
+      <c r="G42" s="61" t="str">
         <f>IF(F42&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H42" s="63" t="str">
+      <c r="H42" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I42" s="63" t="str">
+      <c r="I42" s="61" t="str">
         <f>IF(OR(B42&lt;&gt;"",J42&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J42" s="63"/>
+      <c r="J42" s="61"/>
       <c r="K42" s="45"/>
     </row>
-    <row r="43" spans="1:11" s="60" customFormat="1">
-      <c r="A43" s="72"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63" t="str">
+    <row r="43" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="70"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G43" s="63" t="str">
+      <c r="G43" s="61" t="str">
         <f>IF(F43&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H43" s="63" t="str">
+      <c r="H43" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I43" s="63" t="str">
+      <c r="I43" s="61" t="str">
         <f>IF(OR(B43&lt;&gt;"",J43&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J43" s="63"/>
+      <c r="J43" s="61"/>
       <c r="K43" s="45"/>
     </row>
-    <row r="44" spans="1:11" s="60" customFormat="1">
-      <c r="A44" s="72"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63" t="str">
+    <row r="44" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="70"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G44" s="63" t="str">
+      <c r="G44" s="61" t="str">
         <f>IF(F44&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H44" s="63" t="str">
+      <c r="H44" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I44" s="63" t="str">
+      <c r="I44" s="61" t="str">
         <f>IF(OR(B44&lt;&gt;"",J44&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J44" s="63"/>
+      <c r="J44" s="61"/>
       <c r="K44" s="45"/>
     </row>
-    <row r="45" spans="1:11" s="60" customFormat="1">
-      <c r="A45" s="72"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="63" t="str">
+    <row r="45" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="70"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G45" s="63" t="str">
+      <c r="G45" s="61" t="str">
         <f>IF(F45&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H45" s="63" t="str">
+      <c r="H45" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I45" s="63" t="str">
+      <c r="I45" s="61" t="str">
         <f>IF(OR(B45&lt;&gt;"",J45&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J45" s="63"/>
+      <c r="J45" s="61"/>
       <c r="K45" s="45"/>
     </row>
-    <row r="46" spans="1:11" s="60" customFormat="1">
-      <c r="A46" s="72"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63" t="str">
+    <row r="46" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="70"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G46" s="63" t="str">
+      <c r="G46" s="61" t="str">
         <f>IF(F46&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H46" s="63" t="str">
+      <c r="H46" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I46" s="63" t="str">
+      <c r="I46" s="61" t="str">
         <f>IF(OR(B46&lt;&gt;"",J46&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J46" s="63"/>
+      <c r="J46" s="61"/>
       <c r="K46" s="45"/>
     </row>
-    <row r="47" spans="1:11" s="60" customFormat="1">
-      <c r="A47" s="72"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="63" t="str">
+    <row r="47" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="70"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G47" s="63" t="str">
+      <c r="G47" s="61" t="str">
         <f>IF(F47&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H47" s="63" t="str">
+      <c r="H47" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I47" s="63" t="str">
+      <c r="I47" s="61" t="str">
         <f>IF(OR(B47&lt;&gt;"",J47&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J47" s="63"/>
+      <c r="J47" s="61"/>
       <c r="K47" s="45"/>
     </row>
-    <row r="48" spans="1:11" s="60" customFormat="1">
-      <c r="A48" s="72"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="63" t="str">
+    <row r="48" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="70"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G48" s="63" t="str">
+      <c r="G48" s="61" t="str">
         <f>IF(F48&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H48" s="63" t="str">
+      <c r="H48" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I48" s="63" t="str">
+      <c r="I48" s="61" t="str">
         <f>IF(OR(B48&lt;&gt;"",J48&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J48" s="63"/>
+      <c r="J48" s="61"/>
       <c r="K48" s="45"/>
     </row>
-    <row r="49" spans="1:11" s="60" customFormat="1">
-      <c r="A49" s="72"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="63"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63" t="str">
+    <row r="49" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="70"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G49" s="63" t="str">
+      <c r="G49" s="61" t="str">
         <f>IF(F49&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H49" s="63" t="str">
+      <c r="H49" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I49" s="63" t="str">
+      <c r="I49" s="61" t="str">
         <f>IF(OR(B49&lt;&gt;"",J49&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J49" s="63"/>
+      <c r="J49" s="61"/>
       <c r="K49" s="45"/>
     </row>
-    <row r="50" spans="1:11" s="60" customFormat="1">
-      <c r="A50" s="72"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="63"/>
-      <c r="F50" s="63" t="str">
+    <row r="50" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="70"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G50" s="63" t="str">
+      <c r="G50" s="61" t="str">
         <f>IF(F50&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H50" s="63" t="str">
+      <c r="H50" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I50" s="63" t="str">
+      <c r="I50" s="61" t="str">
         <f>IF(OR(B50&lt;&gt;"",J50&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J50" s="63"/>
+      <c r="J50" s="61"/>
       <c r="K50" s="45"/>
     </row>
-    <row r="51" spans="1:11" s="60" customFormat="1">
-      <c r="A51" s="72"/>
-      <c r="B51" s="62"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="63"/>
-      <c r="E51" s="63"/>
-      <c r="F51" s="63" t="str">
+    <row r="51" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="70"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G51" s="63" t="str">
+      <c r="G51" s="61" t="str">
         <f>IF(F51&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H51" s="63" t="str">
+      <c r="H51" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I51" s="63" t="str">
+      <c r="I51" s="61" t="str">
         <f>IF(OR(B51&lt;&gt;"",J51&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J51" s="63"/>
+      <c r="J51" s="61"/>
       <c r="K51" s="45"/>
     </row>
-    <row r="52" spans="1:11" s="60" customFormat="1">
-      <c r="A52" s="72"/>
-      <c r="B52" s="62"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="63" t="str">
+    <row r="52" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="70"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G52" s="63" t="str">
+      <c r="G52" s="61" t="str">
         <f>IF(F52&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H52" s="63" t="str">
+      <c r="H52" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I52" s="63" t="str">
+      <c r="I52" s="61" t="str">
         <f>IF(OR(B52&lt;&gt;"",J52&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J52" s="63"/>
+      <c r="J52" s="61"/>
       <c r="K52" s="45"/>
     </row>
-    <row r="53" spans="1:11" s="60" customFormat="1">
-      <c r="A53" s="72"/>
-      <c r="B53" s="62"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="63"/>
-      <c r="E53" s="63"/>
-      <c r="F53" s="63" t="str">
+    <row r="53" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="70"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G53" s="63" t="str">
+      <c r="G53" s="61" t="str">
         <f>IF(F53&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H53" s="63" t="str">
+      <c r="H53" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I53" s="63" t="str">
+      <c r="I53" s="61" t="str">
         <f>IF(OR(B53&lt;&gt;"",J53&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J53" s="63"/>
+      <c r="J53" s="61"/>
       <c r="K53" s="45"/>
     </row>
-    <row r="54" spans="1:11" s="60" customFormat="1">
-      <c r="A54" s="72"/>
-      <c r="B54" s="62"/>
-      <c r="C54" s="62"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="63"/>
-      <c r="F54" s="63" t="str">
+    <row r="54" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="70"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G54" s="63" t="str">
+      <c r="G54" s="61" t="str">
         <f>IF(F54&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H54" s="63" t="str">
+      <c r="H54" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I54" s="63" t="str">
+      <c r="I54" s="61" t="str">
         <f>IF(OR(B54&lt;&gt;"",J54&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J54" s="63"/>
+      <c r="J54" s="61"/>
       <c r="K54" s="45"/>
     </row>
-    <row r="55" spans="1:11" s="60" customFormat="1">
-      <c r="A55" s="72"/>
-      <c r="B55" s="62"/>
-      <c r="C55" s="62"/>
-      <c r="D55" s="63"/>
-      <c r="E55" s="63"/>
-      <c r="F55" s="63" t="str">
+    <row r="55" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="70"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G55" s="63" t="str">
+      <c r="G55" s="61" t="str">
         <f>IF(F55&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H55" s="63" t="str">
+      <c r="H55" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I55" s="63" t="str">
+      <c r="I55" s="61" t="str">
         <f>IF(OR(B55&lt;&gt;"",J55&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J55" s="63"/>
+      <c r="J55" s="61"/>
       <c r="K55" s="45"/>
     </row>
-    <row r="56" spans="1:11" s="60" customFormat="1">
-      <c r="A56" s="72"/>
-      <c r="B56" s="62"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="63"/>
-      <c r="F56" s="63" t="str">
+    <row r="56" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="70"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G56" s="63" t="str">
+      <c r="G56" s="61" t="str">
         <f>IF(F56&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H56" s="63" t="str">
+      <c r="H56" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I56" s="63" t="str">
+      <c r="I56" s="61" t="str">
         <f>IF(OR(B56&lt;&gt;"",J56&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J56" s="63"/>
+      <c r="J56" s="61"/>
       <c r="K56" s="45"/>
     </row>
-    <row r="57" spans="1:11" s="60" customFormat="1">
-      <c r="A57" s="72"/>
-      <c r="B57" s="62"/>
-      <c r="C57" s="62"/>
-      <c r="D57" s="63"/>
-      <c r="E57" s="63"/>
-      <c r="F57" s="63" t="str">
+    <row r="57" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="70"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G57" s="63" t="str">
+      <c r="G57" s="61" t="str">
         <f>IF(F57&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H57" s="63" t="str">
+      <c r="H57" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I57" s="63" t="str">
+      <c r="I57" s="61" t="str">
         <f>IF(OR(B57&lt;&gt;"",J57&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J57" s="63"/>
+      <c r="J57" s="61"/>
       <c r="K57" s="45"/>
     </row>
-    <row r="58" spans="1:11" s="60" customFormat="1">
-      <c r="A58" s="72"/>
-      <c r="B58" s="62"/>
-      <c r="C58" s="62"/>
-      <c r="D58" s="63"/>
-      <c r="E58" s="63"/>
-      <c r="F58" s="63" t="str">
+    <row r="58" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="70"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G58" s="63" t="str">
+      <c r="G58" s="61" t="str">
         <f>IF(F58&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H58" s="63" t="str">
+      <c r="H58" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I58" s="63" t="str">
+      <c r="I58" s="61" t="str">
         <f>IF(OR(B58&lt;&gt;"",J58&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J58" s="63"/>
+      <c r="J58" s="61"/>
       <c r="K58" s="45"/>
     </row>
-    <row r="59" spans="1:11" s="60" customFormat="1">
-      <c r="A59" s="72"/>
-      <c r="B59" s="62"/>
-      <c r="C59" s="62"/>
-      <c r="D59" s="63"/>
-      <c r="E59" s="63"/>
-      <c r="F59" s="63" t="str">
+    <row r="59" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="70"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G59" s="63" t="str">
+      <c r="G59" s="61" t="str">
         <f>IF(F59&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H59" s="63" t="str">
+      <c r="H59" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I59" s="63" t="str">
+      <c r="I59" s="61" t="str">
         <f>IF(OR(B59&lt;&gt;"",J59&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J59" s="63"/>
+      <c r="J59" s="61"/>
       <c r="K59" s="45"/>
     </row>
-    <row r="60" spans="1:11" s="60" customFormat="1">
-      <c r="A60" s="72"/>
-      <c r="B60" s="62"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="63"/>
-      <c r="E60" s="63"/>
-      <c r="F60" s="63" t="str">
+    <row r="60" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="70"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G60" s="63" t="str">
+      <c r="G60" s="61" t="str">
         <f>IF(F60&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H60" s="63" t="str">
+      <c r="H60" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I60" s="63" t="str">
+      <c r="I60" s="61" t="str">
         <f>IF(OR(B60&lt;&gt;"",J60&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J60" s="63"/>
+      <c r="J60" s="61"/>
       <c r="K60" s="45"/>
     </row>
-    <row r="61" spans="1:11" s="60" customFormat="1">
-      <c r="A61" s="72"/>
-      <c r="B61" s="62"/>
-      <c r="C61" s="62"/>
-      <c r="D61" s="63"/>
-      <c r="E61" s="63"/>
-      <c r="F61" s="63" t="str">
+    <row r="61" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="70"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G61" s="63" t="str">
+      <c r="G61" s="61" t="str">
         <f>IF(F61&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H61" s="63" t="str">
+      <c r="H61" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I61" s="63" t="str">
+      <c r="I61" s="61" t="str">
         <f>IF(OR(B61&lt;&gt;"",J61&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J61" s="63"/>
+      <c r="J61" s="61"/>
       <c r="K61" s="45"/>
     </row>
-    <row r="62" spans="1:11" s="60" customFormat="1">
-      <c r="A62" s="72"/>
-      <c r="B62" s="72"/>
-      <c r="C62" s="72"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="63"/>
-      <c r="F62" s="63" t="str">
+    <row r="62" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="70"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="61"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G62" s="63" t="str">
+      <c r="G62" s="61" t="str">
         <f>IF(F62&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H62" s="63" t="str">
+      <c r="H62" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I62" s="63" t="str">
+      <c r="I62" s="61" t="str">
         <f>IF(OR(B62&lt;&gt;"",J62&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J62" s="63"/>
+      <c r="J62" s="61"/>
       <c r="K62" s="45"/>
     </row>
-    <row r="63" spans="1:11" s="60" customFormat="1">
-      <c r="A63" s="72"/>
-      <c r="B63" s="72"/>
-      <c r="C63" s="72"/>
-      <c r="D63" s="63"/>
-      <c r="E63" s="63"/>
-      <c r="F63" s="63" t="str">
+    <row r="63" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="70"/>
+      <c r="B63" s="70"/>
+      <c r="C63" s="70"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="61"/>
+      <c r="F63" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G63" s="63" t="str">
+      <c r="G63" s="61" t="str">
         <f>IF(F63&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H63" s="63" t="str">
+      <c r="H63" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I63" s="63" t="str">
+      <c r="I63" s="61" t="str">
         <f>IF(OR(B63&lt;&gt;"",J63&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J63" s="63"/>
+      <c r="J63" s="61"/>
       <c r="K63" s="45"/>
     </row>
-    <row r="64" spans="1:11" s="60" customFormat="1">
-      <c r="A64" s="72"/>
-      <c r="B64" s="72"/>
-      <c r="C64" s="72"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="63"/>
-      <c r="F64" s="63" t="str">
+    <row r="64" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="70"/>
+      <c r="B64" s="70"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G64" s="63" t="str">
+      <c r="G64" s="61" t="str">
         <f>IF(F64&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H64" s="63" t="str">
+      <c r="H64" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I64" s="63" t="str">
+      <c r="I64" s="61" t="str">
         <f>IF(OR(B64&lt;&gt;"",J64&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J64" s="63"/>
+      <c r="J64" s="61"/>
       <c r="K64" s="45"/>
     </row>
-    <row r="65" spans="1:11" s="60" customFormat="1">
-      <c r="A65" s="72"/>
-      <c r="B65" s="72"/>
-      <c r="C65" s="72"/>
-      <c r="D65" s="63"/>
-      <c r="E65" s="63"/>
-      <c r="F65" s="63" t="str">
+    <row r="65" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="70"/>
+      <c r="B65" s="70"/>
+      <c r="C65" s="70"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G65" s="63" t="str">
+      <c r="G65" s="61" t="str">
         <f>IF(F65&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H65" s="63" t="str">
+      <c r="H65" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I65" s="63" t="str">
+      <c r="I65" s="61" t="str">
         <f>IF(OR(B65&lt;&gt;"",J65&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J65" s="63"/>
+      <c r="J65" s="61"/>
       <c r="K65" s="45"/>
     </row>
-    <row r="66" spans="1:11" s="60" customFormat="1">
-      <c r="A66" s="72"/>
-      <c r="B66" s="72"/>
-      <c r="C66" s="72"/>
-      <c r="D66" s="63"/>
-      <c r="E66" s="63"/>
-      <c r="F66" s="63" t="str">
+    <row r="66" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="70"/>
+      <c r="B66" s="70"/>
+      <c r="C66" s="70"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G66" s="63" t="str">
+      <c r="G66" s="61" t="str">
         <f>IF(F66&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H66" s="63" t="str">
+      <c r="H66" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I66" s="63" t="str">
+      <c r="I66" s="61" t="str">
         <f>IF(OR(B66&lt;&gt;"",J66&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J66" s="63"/>
+      <c r="J66" s="61"/>
       <c r="K66" s="45"/>
     </row>
-    <row r="67" spans="1:11" s="60" customFormat="1">
-      <c r="A67" s="72"/>
-      <c r="B67" s="72"/>
-      <c r="C67" s="72"/>
-      <c r="D67" s="63"/>
-      <c r="E67" s="63"/>
-      <c r="F67" s="63" t="str">
+    <row r="67" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="70"/>
+      <c r="B67" s="70"/>
+      <c r="C67" s="70"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G67" s="63" t="str">
+      <c r="G67" s="61" t="str">
         <f>IF(F67&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H67" s="63" t="str">
+      <c r="H67" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I67" s="63" t="str">
+      <c r="I67" s="61" t="str">
         <f>IF(OR(B67&lt;&gt;"",J67&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J67" s="63"/>
+      <c r="J67" s="61"/>
       <c r="K67" s="45"/>
     </row>
-    <row r="68" spans="1:11" s="60" customFormat="1">
-      <c r="A68" s="72"/>
-      <c r="B68" s="72"/>
-      <c r="C68" s="72"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="63"/>
-      <c r="F68" s="63" t="str">
+    <row r="68" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="70"/>
+      <c r="B68" s="70"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="61"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G68" s="63" t="str">
+      <c r="G68" s="61" t="str">
         <f>IF(F68&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H68" s="63" t="str">
+      <c r="H68" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I68" s="63" t="str">
+      <c r="I68" s="61" t="str">
         <f>IF(OR(B68&lt;&gt;"",J68&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J68" s="63"/>
+      <c r="J68" s="61"/>
       <c r="K68" s="45"/>
     </row>
-    <row r="69" spans="1:11" s="60" customFormat="1">
-      <c r="A69" s="72"/>
-      <c r="B69" s="72"/>
-      <c r="C69" s="72"/>
-      <c r="D69" s="63"/>
-      <c r="E69" s="63"/>
-      <c r="F69" s="63" t="str">
+    <row r="69" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="70"/>
+      <c r="B69" s="70"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="61"/>
+      <c r="E69" s="61"/>
+      <c r="F69" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G69" s="63" t="str">
+      <c r="G69" s="61" t="str">
         <f>IF(F69&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H69" s="63" t="str">
+      <c r="H69" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I69" s="63" t="str">
+      <c r="I69" s="61" t="str">
         <f>IF(OR(B69&lt;&gt;"",J69&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J69" s="63"/>
+      <c r="J69" s="61"/>
       <c r="K69" s="45"/>
     </row>
-    <row r="70" spans="1:11" s="60" customFormat="1">
-      <c r="A70" s="72"/>
-      <c r="B70" s="72"/>
-      <c r="C70" s="72"/>
-      <c r="D70" s="63"/>
-      <c r="E70" s="63"/>
-      <c r="F70" s="63" t="str">
+    <row r="70" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="70"/>
+      <c r="B70" s="70"/>
+      <c r="C70" s="70"/>
+      <c r="D70" s="61"/>
+      <c r="E70" s="61"/>
+      <c r="F70" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G70" s="63" t="str">
+      <c r="G70" s="61" t="str">
         <f>IF(F70&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H70" s="63" t="str">
+      <c r="H70" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I70" s="63" t="str">
+      <c r="I70" s="61" t="str">
         <f>IF(OR(B70&lt;&gt;"",J70&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J70" s="63"/>
+      <c r="J70" s="61"/>
       <c r="K70" s="45"/>
     </row>
-    <row r="71" spans="1:11" s="60" customFormat="1">
-      <c r="A71" s="72"/>
-      <c r="B71" s="72"/>
-      <c r="C71" s="72"/>
-      <c r="D71" s="63"/>
-      <c r="E71" s="63"/>
-      <c r="F71" s="63" t="str">
+    <row r="71" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="70"/>
+      <c r="B71" s="70"/>
+      <c r="C71" s="70"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="61"/>
+      <c r="F71" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G71" s="63" t="str">
+      <c r="G71" s="61" t="str">
         <f>IF(F71&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H71" s="63" t="str">
+      <c r="H71" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I71" s="63" t="str">
+      <c r="I71" s="61" t="str">
         <f>IF(OR(B71&lt;&gt;"",J71&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J71" s="63"/>
+      <c r="J71" s="61"/>
       <c r="K71" s="45"/>
     </row>
-    <row r="72" spans="1:11" s="60" customFormat="1">
-      <c r="A72" s="72"/>
-      <c r="B72" s="72"/>
-      <c r="C72" s="72"/>
-      <c r="D72" s="63"/>
-      <c r="E72" s="63"/>
-      <c r="F72" s="63" t="str">
+    <row r="72" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="70"/>
+      <c r="B72" s="70"/>
+      <c r="C72" s="70"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G72" s="63" t="str">
+      <c r="G72" s="61" t="str">
         <f>IF(F72&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H72" s="63" t="str">
+      <c r="H72" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I72" s="63" t="str">
+      <c r="I72" s="61" t="str">
         <f>IF(OR(B72&lt;&gt;"",J72&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J72" s="63"/>
+      <c r="J72" s="61"/>
       <c r="K72" s="45"/>
     </row>
-    <row r="73" spans="1:11" s="60" customFormat="1">
-      <c r="A73" s="72"/>
-      <c r="B73" s="72"/>
-      <c r="C73" s="72"/>
-      <c r="D73" s="63"/>
-      <c r="E73" s="63"/>
-      <c r="F73" s="63" t="str">
+    <row r="73" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="70"/>
+      <c r="B73" s="70"/>
+      <c r="C73" s="70"/>
+      <c r="D73" s="61"/>
+      <c r="E73" s="61"/>
+      <c r="F73" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G73" s="63" t="str">
+      <c r="G73" s="61" t="str">
         <f>IF(F73&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H73" s="63" t="str">
+      <c r="H73" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I73" s="63" t="str">
+      <c r="I73" s="61" t="str">
         <f>IF(OR(B73&lt;&gt;"",J73&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J73" s="63"/>
+      <c r="J73" s="61"/>
       <c r="K73" s="45"/>
     </row>
-    <row r="74" spans="1:11" s="60" customFormat="1">
-      <c r="A74" s="72"/>
-      <c r="B74" s="72"/>
-      <c r="C74" s="72"/>
-      <c r="D74" s="63"/>
-      <c r="E74" s="63"/>
-      <c r="F74" s="63" t="str">
+    <row r="74" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="70"/>
+      <c r="B74" s="70"/>
+      <c r="C74" s="70"/>
+      <c r="D74" s="61"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G74" s="63" t="str">
+      <c r="G74" s="61" t="str">
         <f>IF(F74&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H74" s="63" t="str">
+      <c r="H74" s="61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I74" s="63" t="str">
+      <c r="I74" s="61" t="str">
         <f>IF(OR(B74&lt;&gt;"",J74&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J74" s="63"/>
+      <c r="J74" s="61"/>
       <c r="K74" s="45"/>
     </row>
-    <row r="75" spans="1:11" s="60" customFormat="1">
-      <c r="A75" s="72"/>
-      <c r="B75" s="72"/>
-      <c r="C75" s="72"/>
-      <c r="D75" s="63"/>
-      <c r="E75" s="63"/>
-      <c r="F75" s="63" t="str">
+    <row r="75" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="70"/>
+      <c r="B75" s="70"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="61"/>
+      <c r="E75" s="61"/>
+      <c r="F75" s="61" t="str">
         <f t="shared" ref="F75:F108" si="4">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I75="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v/>
       </c>
-      <c r="G75" s="63" t="str">
+      <c r="G75" s="61" t="str">
         <f>IF(F75&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H75" s="63" t="str">
+      <c r="H75" s="61" t="str">
         <f t="shared" ref="H75:H108" si="5">IF(AND(I75&lt;&gt;"",I75&lt;&gt;0),IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
-      <c r="I75" s="63" t="str">
+      <c r="I75" s="61" t="str">
         <f>IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J75" s="63"/>
+      <c r="J75" s="61"/>
       <c r="K75" s="45"/>
     </row>
-    <row r="76" spans="1:11" s="60" customFormat="1">
-      <c r="A76" s="72"/>
-      <c r="B76" s="72"/>
-      <c r="C76" s="72"/>
-      <c r="D76" s="63"/>
-      <c r="E76" s="63"/>
-      <c r="F76" s="63" t="str">
+    <row r="76" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="70"/>
+      <c r="B76" s="70"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G76" s="63" t="str">
+      <c r="G76" s="61" t="str">
         <f>IF(F76&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H76" s="63" t="str">
+      <c r="H76" s="61" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I76" s="63" t="str">
+      <c r="I76" s="61" t="str">
         <f>IF(OR(B76&lt;&gt;"",J76&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J76" s="63"/>
+      <c r="J76" s="61"/>
       <c r="K76" s="45"/>
     </row>
-    <row r="77" spans="1:11" s="60" customFormat="1">
-      <c r="A77" s="72"/>
-      <c r="B77" s="72"/>
-      <c r="C77" s="72"/>
-      <c r="D77" s="63"/>
-      <c r="E77" s="63"/>
-      <c r="F77" s="63" t="str">
+    <row r="77" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="70"/>
+      <c r="B77" s="70"/>
+      <c r="C77" s="70"/>
+      <c r="D77" s="61"/>
+      <c r="E77" s="61"/>
+      <c r="F77" s="61" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G77" s="63" t="str">
+      <c r="G77" s="61" t="str">
         <f>IF(F77&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H77" s="63" t="str">
+      <c r="H77" s="61" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I77" s="63" t="str">
+      <c r="I77" s="61" t="str">
         <f>IF(OR(B77&lt;&gt;"",J77&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J77" s="63"/>
+      <c r="J77" s="61"/>
       <c r="K77" s="45"/>
     </row>
-    <row r="78" spans="1:11" s="60" customFormat="1">
-      <c r="A78" s="72"/>
-      <c r="B78" s="72"/>
-      <c r="C78" s="72"/>
-      <c r="D78" s="63"/>
-      <c r="E78" s="63"/>
-      <c r="F78" s="63" t="str">
+    <row r="78" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="70"/>
+      <c r="B78" s="70"/>
+      <c r="C78" s="70"/>
+      <c r="D78" s="61"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="61" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G78" s="63" t="str">
+      <c r="G78" s="61" t="str">
         <f>IF(F78&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H78" s="63" t="str">
+      <c r="H78" s="61" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I78" s="63" t="str">
+      <c r="I78" s="61" t="str">
         <f>IF(OR(B78&lt;&gt;"",J78&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J78" s="63"/>
+      <c r="J78" s="61"/>
       <c r="K78" s="45"/>
     </row>
-    <row r="79" spans="1:11" s="60" customFormat="1">
-      <c r="A79" s="72"/>
-      <c r="B79" s="72"/>
-      <c r="C79" s="72"/>
-      <c r="D79" s="63"/>
-      <c r="E79" s="63"/>
-      <c r="F79" s="63" t="str">
+    <row r="79" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="70"/>
+      <c r="B79" s="70"/>
+      <c r="C79" s="70"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="61"/>
+      <c r="F79" s="61" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G79" s="63" t="str">
+      <c r="G79" s="61" t="str">
         <f>IF(F79&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H79" s="63" t="str">
+      <c r="H79" s="61" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I79" s="63" t="str">
+      <c r="I79" s="61" t="str">
         <f>IF(OR(B79&lt;&gt;"",J79&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J79" s="63"/>
+      <c r="J79" s="61"/>
       <c r="K79" s="45"/>
     </row>
-    <row r="80" spans="1:11" s="60" customFormat="1">
-      <c r="A80" s="72"/>
-      <c r="B80" s="72"/>
-      <c r="C80" s="72"/>
-      <c r="D80" s="63"/>
-      <c r="E80" s="63"/>
-      <c r="F80" s="63" t="str">
+    <row r="80" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="70"/>
+      <c r="B80" s="70"/>
+      <c r="C80" s="70"/>
+      <c r="D80" s="61"/>
+      <c r="E80" s="61"/>
+      <c r="F80" s="61" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G80" s="63" t="str">
+      <c r="G80" s="61" t="str">
         <f>IF(F80&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H80" s="63" t="str">
+      <c r="H80" s="61" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I80" s="63" t="str">
+      <c r="I80" s="61" t="str">
         <f>IF(OR(B80&lt;&gt;"",J80&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J80" s="63"/>
+      <c r="J80" s="61"/>
       <c r="K80" s="45"/>
     </row>
-    <row r="81" spans="1:11" s="60" customFormat="1">
-      <c r="A81" s="72"/>
-      <c r="B81" s="72"/>
-      <c r="C81" s="72"/>
-      <c r="D81" s="63"/>
-      <c r="E81" s="63"/>
-      <c r="F81" s="63" t="str">
+    <row r="81" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="70"/>
+      <c r="B81" s="70"/>
+      <c r="C81" s="70"/>
+      <c r="D81" s="61"/>
+      <c r="E81" s="61"/>
+      <c r="F81" s="61" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G81" s="63" t="str">
+      <c r="G81" s="61" t="str">
         <f>IF(F81&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H81" s="63" t="str">
+      <c r="H81" s="61" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I81" s="63" t="str">
+      <c r="I81" s="61" t="str">
         <f>IF(OR(B81&lt;&gt;"",J81&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J81" s="63"/>
+      <c r="J81" s="61"/>
       <c r="K81" s="45"/>
     </row>
-    <row r="82" spans="1:11" s="60" customFormat="1">
-      <c r="A82" s="72"/>
-      <c r="B82" s="72"/>
-      <c r="C82" s="72"/>
-      <c r="D82" s="63"/>
-      <c r="E82" s="63"/>
-      <c r="F82" s="63" t="str">
+    <row r="82" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="70"/>
+      <c r="B82" s="70"/>
+      <c r="C82" s="70"/>
+      <c r="D82" s="61"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G82" s="63" t="str">
+      <c r="G82" s="61" t="str">
         <f>IF(F82&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H82" s="63" t="str">
+      <c r="H82" s="61" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I82" s="63" t="str">
+      <c r="I82" s="61" t="str">
         <f>IF(OR(B82&lt;&gt;"",J82&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J82" s="63"/>
+      <c r="J82" s="61"/>
       <c r="K82" s="45"/>
     </row>
-    <row r="83" spans="1:11" s="60" customFormat="1">
-      <c r="A83" s="72"/>
-      <c r="B83" s="72"/>
-      <c r="C83" s="72"/>
-      <c r="D83" s="63"/>
-      <c r="E83" s="63"/>
-      <c r="F83" s="63" t="str">
+    <row r="83" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="70"/>
+      <c r="B83" s="70"/>
+      <c r="C83" s="70"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="61"/>
+      <c r="F83" s="61" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G83" s="63" t="str">
+      <c r="G83" s="61" t="str">
         <f>IF(F83&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H83" s="63" t="str">
+      <c r="H83" s="61" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I83" s="63" t="str">
+      <c r="I83" s="61" t="str">
         <f>IF(OR(B83&lt;&gt;"",J83&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J83" s="63"/>
+      <c r="J83" s="61"/>
       <c r="K83" s="45"/>
     </row>
-    <row r="84" spans="1:11" s="60" customFormat="1">
-      <c r="A84" s="72"/>
-      <c r="B84" s="72"/>
-      <c r="C84" s="72"/>
-      <c r="D84" s="63"/>
-      <c r="E84" s="63"/>
-      <c r="F84" s="63" t="str">
+    <row r="84" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="70"/>
+      <c r="B84" s="70"/>
+      <c r="C84" s="70"/>
+      <c r="D84" s="61"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="61" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G84" s="63" t="str">
+      <c r="G84" s="61" t="str">
         <f>IF(F84&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H84" s="63" t="str">
+      <c r="H84" s="61" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I84" s="63" t="str">
+      <c r="I84" s="61" t="str">
         <f>IF(OR(B84&lt;&gt;"",J84&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J84" s="63"/>
+      <c r="J84" s="61"/>
       <c r="K84" s="45"/>
     </row>
-    <row r="85" spans="1:11" s="60" customFormat="1">
-      <c r="A85" s="72"/>
-      <c r="B85" s="72"/>
-      <c r="C85" s="72"/>
-      <c r="D85" s="63"/>
-      <c r="E85" s="63"/>
-      <c r="F85" s="63" t="str">
+    <row r="85" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="70"/>
+      <c r="B85" s="70"/>
+      <c r="C85" s="70"/>
+      <c r="D85" s="61"/>
+      <c r="E85" s="61"/>
+      <c r="F85" s="61" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G85" s="63" t="str">
+      <c r="G85" s="61" t="str">
         <f>IF(F85&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H85" s="63" t="str">
+      <c r="H85" s="61" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I85" s="63" t="str">
+      <c r="I85" s="61" t="str">
         <f>IF(OR(B85&lt;&gt;"",J85&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J85" s="63"/>
+      <c r="J85" s="61"/>
       <c r="K85" s="45"/>
     </row>
-    <row r="86" spans="1:11" s="60" customFormat="1">
-      <c r="A86" s="72"/>
-      <c r="B86" s="72"/>
-      <c r="C86" s="72"/>
-      <c r="D86" s="63"/>
-      <c r="E86" s="63"/>
-      <c r="F86" s="63" t="str">
+    <row r="86" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="70"/>
+      <c r="B86" s="70"/>
+      <c r="C86" s="70"/>
+      <c r="D86" s="61"/>
+      <c r="E86" s="61"/>
+      <c r="F86" s="61" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G86" s="63" t="str">
+      <c r="G86" s="61" t="str">
         <f>IF(F86&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H86" s="63" t="str">
+      <c r="H86" s="61" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I86" s="63" t="str">
+      <c r="I86" s="61" t="str">
         <f>IF(OR(B86&lt;&gt;"",J86&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J86" s="63"/>
+      <c r="J86" s="61"/>
       <c r="K86" s="45"/>
     </row>
-    <row r="87" spans="1:11" s="60" customFormat="1">
-      <c r="A87" s="72"/>
-      <c r="B87" s="72"/>
-      <c r="C87" s="72"/>
-      <c r="D87" s="63"/>
-      <c r="E87" s="63"/>
-      <c r="F87" s="63" t="str">
+    <row r="87" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="70"/>
+      <c r="B87" s="70"/>
+      <c r="C87" s="70"/>
+      <c r="D87" s="61"/>
+      <c r="E87" s="61"/>
+      <c r="F87" s="61" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G87" s="63" t="str">
+      <c r="G87" s="61" t="str">
         <f>IF(F87&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H87" s="63" t="str">
+      <c r="H87" s="61" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I87" s="63" t="str">
+      <c r="I87" s="61" t="str">
         <f>IF(OR(B87&lt;&gt;"",J87&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J87" s="63"/>
+      <c r="J87" s="61"/>
       <c r="K87" s="45"/>
     </row>
-    <row r="88" spans="1:11" s="60" customFormat="1">
-      <c r="A88" s="72"/>
-      <c r="B88" s="72"/>
-      <c r="C88" s="72"/>
-      <c r="D88" s="63"/>
-      <c r="E88" s="63"/>
-      <c r="F88" s="63" t="str">
+    <row r="88" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="70"/>
+      <c r="B88" s="70"/>
+      <c r="C88" s="70"/>
+      <c r="D88" s="61"/>
+      <c r="E88" s="61"/>
+      <c r="F88" s="61" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G88" s="63" t="str">
+      <c r="G88" s="61" t="str">
         <f>IF(F88&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H88" s="63" t="str">
+      <c r="H88" s="61" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I88" s="63" t="str">
+      <c r="I88" s="61" t="str">
         <f>IF(OR(B88&lt;&gt;"",J88&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J88" s="63"/>
+      <c r="J88" s="61"/>
       <c r="K88" s="45"/>
     </row>
-    <row r="89" spans="1:11" s="60" customFormat="1">
-      <c r="A89" s="72"/>
-      <c r="B89" s="72"/>
-      <c r="C89" s="72"/>
-      <c r="D89" s="63"/>
-      <c r="E89" s="63"/>
-      <c r="F89" s="63" t="str">
+    <row r="89" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="70"/>
+      <c r="B89" s="70"/>
+      <c r="C89" s="70"/>
+      <c r="D89" s="61"/>
+      <c r="E89" s="61"/>
+      <c r="F89" s="61" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G89" s="63" t="str">
+      <c r="G89" s="61" t="str">
         <f>IF(F89&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H89" s="63" t="str">
+      <c r="H89" s="61" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I89" s="63" t="str">
+      <c r="I89" s="61" t="str">
         <f>IF(OR(B89&lt;&gt;"",J89&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J89" s="63"/>
+      <c r="J89" s="61"/>
       <c r="K89" s="45"/>
     </row>
-    <row r="90" spans="1:11" s="60" customFormat="1">
-      <c r="A90" s="72"/>
-      <c r="B90" s="72"/>
-      <c r="C90" s="72"/>
-      <c r="D90" s="63"/>
-      <c r="E90" s="63"/>
-      <c r="F90" s="63" t="str">
+    <row r="90" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="70"/>
+      <c r="B90" s="70"/>
+      <c r="C90" s="70"/>
+      <c r="D90" s="61"/>
+      <c r="E90" s="61"/>
+      <c r="F90" s="61" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G90" s="63" t="str">
+      <c r="G90" s="61" t="str">
         <f>IF(F90&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H90" s="63" t="str">
+      <c r="H90" s="61" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I90" s="63" t="str">
+      <c r="I90" s="61" t="str">
         <f>IF(OR(B90&lt;&gt;"",J90&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J90" s="63"/>
+      <c r="J90" s="61"/>
       <c r="K90" s="45"/>
     </row>
-    <row r="91" spans="1:11" s="60" customFormat="1">
-      <c r="A91" s="72"/>
-      <c r="B91" s="72"/>
-      <c r="C91" s="72"/>
-      <c r="D91" s="63"/>
-      <c r="E91" s="63"/>
-      <c r="F91" s="63" t="str">
+    <row r="91" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="70"/>
+      <c r="B91" s="70"/>
+      <c r="C91" s="70"/>
+      <c r="D91" s="61"/>
+      <c r="E91" s="61"/>
+      <c r="F91" s="61" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G91" s="63" t="str">
+      <c r="G91" s="61" t="str">
         <f>IF(F91&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H91" s="63" t="str">
+      <c r="H91" s="61" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I91" s="63" t="str">
+      <c r="I91" s="61" t="str">
         <f>IF(OR(B91&lt;&gt;"",J91&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J91" s="63"/>
+      <c r="J91" s="61"/>
       <c r="K91" s="45"/>
     </row>
-    <row r="92" spans="1:11" s="60" customFormat="1">
-      <c r="A92" s="72"/>
-      <c r="B92" s="72"/>
-      <c r="C92" s="72"/>
-      <c r="D92" s="63"/>
-      <c r="E92" s="63"/>
-      <c r="F92" s="63" t="str">
+    <row r="92" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="70"/>
+      <c r="B92" s="70"/>
+      <c r="C92" s="70"/>
+      <c r="D92" s="61"/>
+      <c r="E92" s="61"/>
+      <c r="F92" s="61" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G92" s="63" t="str">
+      <c r="G92" s="61" t="str">
         <f>IF(F92&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H92" s="63" t="str">
+      <c r="H92" s="61" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I92" s="63" t="str">
+      <c r="I92" s="61" t="str">
         <f>IF(OR(B92&lt;&gt;"",J92&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J92" s="63"/>
+      <c r="J92" s="61"/>
       <c r="K92" s="45"/>
     </row>
-    <row r="93" spans="1:11" s="60" customFormat="1">
-      <c r="A93" s="72"/>
-      <c r="B93" s="72"/>
-      <c r="C93" s="72"/>
-      <c r="D93" s="63"/>
-      <c r="E93" s="63"/>
-      <c r="F93" s="63" t="str">
+    <row r="93" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="70"/>
+      <c r="B93" s="70"/>
+      <c r="C93" s="70"/>
+      <c r="D93" s="61"/>
+      <c r="E93" s="61"/>
+      <c r="F93" s="61" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G93" s="63" t="str">
+      <c r="G93" s="61" t="str">
         <f>IF(F93&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H93" s="63" t="str">
+      <c r="H93" s="61" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I93" s="63" t="str">
+      <c r="I93" s="61" t="str">
         <f>IF(OR(B93&lt;&gt;"",J93&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J93" s="63"/>
+      <c r="J93" s="61"/>
       <c r="K93" s="45"/>
     </row>
-    <row r="94" spans="1:11" s="60" customFormat="1">
-      <c r="A94" s="72"/>
-      <c r="B94" s="72"/>
-      <c r="C94" s="72"/>
-      <c r="D94" s="63"/>
-      <c r="E94" s="63"/>
-      <c r="F94" s="63" t="str">
+    <row r="94" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="70"/>
+      <c r="B94" s="70"/>
+      <c r="C94" s="70"/>
+      <c r="D94" s="61"/>
+      <c r="E94" s="61"/>
+      <c r="F94" s="61" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G94" s="63" t="str">
+      <c r="G94" s="61" t="str">
         <f>IF(F94&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H94" s="63" t="str">
+      <c r="H94" s="61" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I94" s="63" t="str">
+      <c r="I94" s="61" t="str">
         <f>IF(OR(B94&lt;&gt;"",J94&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J94" s="63"/>
+      <c r="J94" s="61"/>
       <c r="K94" s="45"/>
     </row>
-    <row r="95" spans="1:11" s="60" customFormat="1">
-      <c r="A95" s="72"/>
-      <c r="B95" s="72"/>
-      <c r="C95" s="72"/>
-      <c r="D95" s="63"/>
-      <c r="E95" s="63"/>
-      <c r="F95" s="63" t="str">
+    <row r="95" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="70"/>
+      <c r="B95" s="70"/>
+      <c r="C95" s="70"/>
+      <c r="D95" s="61"/>
+      <c r="E95" s="61"/>
+      <c r="F95" s="61" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G95" s="63" t="str">
+      <c r="G95" s="61" t="str">
         <f>IF(F95&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H95" s="63" t="str">
+      <c r="H95" s="61" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I95" s="63" t="str">
+      <c r="I95" s="61" t="str">
         <f>IF(OR(B95&lt;&gt;"",J95&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J95" s="63"/>
+      <c r="J95" s="61"/>
       <c r="K95" s="45"/>
     </row>
-    <row r="96" spans="1:11" s="60" customFormat="1">
-      <c r="A96" s="72"/>
-      <c r="B96" s="72"/>
-      <c r="C96" s="72"/>
-      <c r="D96" s="63"/>
-      <c r="E96" s="63"/>
-      <c r="F96" s="63" t="str">
+    <row r="96" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="70"/>
+      <c r="B96" s="70"/>
+      <c r="C96" s="70"/>
+      <c r="D96" s="61"/>
+      <c r="E96" s="61"/>
+      <c r="F96" s="61" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G96" s="63" t="str">
+      <c r="G96" s="61" t="str">
         <f>IF(F96&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H96" s="63" t="str">
+      <c r="H96" s="61" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I96" s="63" t="str">
+      <c r="I96" s="61" t="str">
         <f>IF(OR(B96&lt;&gt;"",J96&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J96" s="63"/>
+      <c r="J96" s="61"/>
       <c r="K96" s="45"/>
     </row>
-    <row r="97" spans="1:11" s="60" customFormat="1">
-      <c r="A97" s="72"/>
-      <c r="B97" s="72"/>
-      <c r="C97" s="72"/>
-      <c r="D97" s="63"/>
-      <c r="E97" s="63"/>
-      <c r="F97" s="63" t="str">
+    <row r="97" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="70"/>
+      <c r="B97" s="70"/>
+      <c r="C97" s="70"/>
+      <c r="D97" s="61"/>
+      <c r="E97" s="61"/>
+      <c r="F97" s="61" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G97" s="63" t="str">
+      <c r="G97" s="61" t="str">
         <f>IF(F97&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H97" s="63" t="str">
+      <c r="H97" s="61" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I97" s="63" t="str">
+      <c r="I97" s="61" t="str">
         <f>IF(OR(B97&lt;&gt;"",J97&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J97" s="63"/>
+      <c r="J97" s="61"/>
       <c r="K97" s="45"/>
     </row>
-    <row r="98" spans="1:11" s="60" customFormat="1">
-      <c r="A98" s="72"/>
-      <c r="B98" s="72"/>
-      <c r="C98" s="72"/>
-      <c r="D98" s="63"/>
-      <c r="E98" s="63"/>
-      <c r="F98" s="63" t="str">
+    <row r="98" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="70"/>
+      <c r="B98" s="70"/>
+      <c r="C98" s="70"/>
+      <c r="D98" s="61"/>
+      <c r="E98" s="61"/>
+      <c r="F98" s="61" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G98" s="63" t="str">
+      <c r="G98" s="61" t="str">
         <f>IF(F98&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H98" s="63" t="str">
+      <c r="H98" s="61" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I98" s="63" t="str">
+      <c r="I98" s="61" t="str">
         <f>IF(OR(B98&lt;&gt;"",J98&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J98" s="63"/>
+      <c r="J98" s="61"/>
       <c r="K98" s="45"/>
     </row>
-    <row r="99" spans="1:11" s="60" customFormat="1">
-      <c r="A99" s="72"/>
-      <c r="B99" s="72"/>
-      <c r="C99" s="72"/>
-      <c r="D99" s="63"/>
-      <c r="E99" s="63"/>
-      <c r="F99" s="63" t="str">
+    <row r="99" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="70"/>
+      <c r="B99" s="70"/>
+      <c r="C99" s="70"/>
+      <c r="D99" s="61"/>
+      <c r="E99" s="61"/>
+      <c r="F99" s="61" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G99" s="63" t="str">
+      <c r="G99" s="61" t="str">
         <f>IF(F99&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H99" s="63" t="str">
+      <c r="H99" s="61" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I99" s="63" t="str">
+      <c r="I99" s="61" t="str">
         <f>IF(OR(B99&lt;&gt;"",J99&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J99" s="63"/>
+      <c r="J99" s="61"/>
       <c r="K99" s="45"/>
     </row>
-    <row r="100" spans="1:11" s="60" customFormat="1">
-      <c r="A100" s="72"/>
-      <c r="B100" s="72"/>
-      <c r="C100" s="72"/>
-      <c r="D100" s="63"/>
-      <c r="E100" s="63"/>
-      <c r="F100" s="63" t="str">
+    <row r="100" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="70"/>
+      <c r="B100" s="70"/>
+      <c r="C100" s="70"/>
+      <c r="D100" s="61"/>
+      <c r="E100" s="61"/>
+      <c r="F100" s="61" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G100" s="63" t="str">
+      <c r="G100" s="61" t="str">
         <f>IF(F100&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H100" s="63" t="str">
+      <c r="H100" s="61" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I100" s="63" t="str">
+      <c r="I100" s="61" t="str">
         <f>IF(OR(B100&lt;&gt;"",J100&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J100" s="63"/>
+      <c r="J100" s="61"/>
       <c r="K100" s="45"/>
     </row>
-    <row r="101" spans="1:11" s="60" customFormat="1">
-      <c r="A101" s="72"/>
-      <c r="B101" s="72"/>
-      <c r="C101" s="72"/>
-      <c r="D101" s="63"/>
-      <c r="E101" s="63"/>
-      <c r="F101" s="63" t="str">
+    <row r="101" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="70"/>
+      <c r="B101" s="70"/>
+      <c r="C101" s="70"/>
+      <c r="D101" s="61"/>
+      <c r="E101" s="61"/>
+      <c r="F101" s="61" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G101" s="63" t="str">
+      <c r="G101" s="61" t="str">
         <f>IF(F101&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H101" s="63" t="str">
+      <c r="H101" s="61" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I101" s="63" t="str">
+      <c r="I101" s="61" t="str">
         <f>IF(OR(B101&lt;&gt;"",J101&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J101" s="63"/>
+      <c r="J101" s="61"/>
       <c r="K101" s="45"/>
     </row>
-    <row r="102" spans="1:11" s="60" customFormat="1">
-      <c r="A102" s="72"/>
-      <c r="B102" s="72"/>
-      <c r="C102" s="72"/>
-      <c r="D102" s="63"/>
-      <c r="E102" s="63"/>
-      <c r="F102" s="63" t="str">
+    <row r="102" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="70"/>
+      <c r="B102" s="70"/>
+      <c r="C102" s="70"/>
+      <c r="D102" s="61"/>
+      <c r="E102" s="61"/>
+      <c r="F102" s="61" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G102" s="63" t="str">
+      <c r="G102" s="61" t="str">
         <f>IF(F102&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H102" s="63" t="str">
+      <c r="H102" s="61" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I102" s="63" t="str">
+      <c r="I102" s="61" t="str">
         <f>IF(OR(B102&lt;&gt;"",J102&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J102" s="63"/>
+      <c r="J102" s="61"/>
       <c r="K102" s="45"/>
     </row>
-    <row r="103" spans="1:11" s="60" customFormat="1">
-      <c r="A103" s="72"/>
-      <c r="B103" s="72"/>
-      <c r="C103" s="72"/>
-      <c r="D103" s="63"/>
-      <c r="E103" s="63"/>
-      <c r="F103" s="63" t="str">
+    <row r="103" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="70"/>
+      <c r="B103" s="70"/>
+      <c r="C103" s="70"/>
+      <c r="D103" s="61"/>
+      <c r="E103" s="61"/>
+      <c r="F103" s="61" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G103" s="63" t="str">
+      <c r="G103" s="61" t="str">
         <f>IF(F103&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H103" s="63" t="str">
+      <c r="H103" s="61" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I103" s="63" t="str">
+      <c r="I103" s="61" t="str">
         <f>IF(OR(B103&lt;&gt;"",J103&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J103" s="63"/>
+      <c r="J103" s="61"/>
       <c r="K103" s="45"/>
     </row>
-    <row r="104" spans="1:11" s="60" customFormat="1">
-      <c r="A104" s="72"/>
-      <c r="B104" s="72"/>
-      <c r="C104" s="72"/>
-      <c r="D104" s="63"/>
-      <c r="E104" s="63"/>
-      <c r="F104" s="63" t="str">
+    <row r="104" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="70"/>
+      <c r="B104" s="70"/>
+      <c r="C104" s="70"/>
+      <c r="D104" s="61"/>
+      <c r="E104" s="61"/>
+      <c r="F104" s="61" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G104" s="63" t="str">
+      <c r="G104" s="61" t="str">
         <f>IF(F104&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H104" s="63" t="str">
+      <c r="H104" s="61" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I104" s="63" t="str">
+      <c r="I104" s="61" t="str">
         <f>IF(OR(B104&lt;&gt;"",J104&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J104" s="63"/>
+      <c r="J104" s="61"/>
       <c r="K104" s="45"/>
     </row>
-    <row r="105" spans="1:11" s="60" customFormat="1">
-      <c r="A105" s="72"/>
-      <c r="B105" s="72"/>
-      <c r="C105" s="72"/>
-      <c r="D105" s="63"/>
-      <c r="E105" s="63"/>
-      <c r="F105" s="63" t="str">
+    <row r="105" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="70"/>
+      <c r="B105" s="70"/>
+      <c r="C105" s="70"/>
+      <c r="D105" s="61"/>
+      <c r="E105" s="61"/>
+      <c r="F105" s="61" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G105" s="63" t="str">
+      <c r="G105" s="61" t="str">
         <f>IF(F105&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H105" s="63" t="str">
+      <c r="H105" s="61" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I105" s="63" t="str">
+      <c r="I105" s="61" t="str">
         <f>IF(OR(B105&lt;&gt;"",J105&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J105" s="63"/>
+      <c r="J105" s="61"/>
       <c r="K105" s="45"/>
     </row>
-    <row r="106" spans="1:11" s="60" customFormat="1">
-      <c r="A106" s="72"/>
-      <c r="B106" s="72"/>
-      <c r="C106" s="72"/>
-      <c r="D106" s="63"/>
-      <c r="E106" s="63"/>
-      <c r="F106" s="63" t="str">
+    <row r="106" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="70"/>
+      <c r="B106" s="70"/>
+      <c r="C106" s="70"/>
+      <c r="D106" s="61"/>
+      <c r="E106" s="61"/>
+      <c r="F106" s="61" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G106" s="63" t="str">
+      <c r="G106" s="61" t="str">
         <f>IF(F106&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H106" s="63" t="str">
+      <c r="H106" s="61" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I106" s="63" t="str">
+      <c r="I106" s="61" t="str">
         <f>IF(OR(B106&lt;&gt;"",J106&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J106" s="63"/>
+      <c r="J106" s="61"/>
       <c r="K106" s="45"/>
     </row>
-    <row r="107" spans="1:11" s="60" customFormat="1">
-      <c r="A107" s="72"/>
-      <c r="B107" s="72"/>
-      <c r="C107" s="72"/>
-      <c r="D107" s="63"/>
-      <c r="E107" s="63"/>
-      <c r="F107" s="63" t="str">
+    <row r="107" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="70"/>
+      <c r="B107" s="70"/>
+      <c r="C107" s="70"/>
+      <c r="D107" s="61"/>
+      <c r="E107" s="61"/>
+      <c r="F107" s="61" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G107" s="63" t="str">
+      <c r="G107" s="61" t="str">
         <f>IF(F107&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H107" s="63" t="str">
+      <c r="H107" s="61" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I107" s="63" t="str">
+      <c r="I107" s="61" t="str">
         <f>IF(OR(B107&lt;&gt;"",J107&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J107" s="63"/>
+      <c r="J107" s="61"/>
       <c r="K107" s="45"/>
     </row>
-    <row r="108" spans="1:11" s="60" customFormat="1">
-      <c r="A108" s="72"/>
-      <c r="B108" s="72"/>
-      <c r="C108" s="72"/>
-      <c r="D108" s="63"/>
-      <c r="E108" s="63"/>
-      <c r="F108" s="63" t="str">
+    <row r="108" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="70"/>
+      <c r="B108" s="70"/>
+      <c r="C108" s="70"/>
+      <c r="D108" s="61"/>
+      <c r="E108" s="61"/>
+      <c r="F108" s="61" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G108" s="63" t="str">
+      <c r="G108" s="61" t="str">
         <f>IF(F108&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H108" s="63" t="str">
+      <c r="H108" s="61" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I108" s="63" t="str">
+      <c r="I108" s="61" t="str">
         <f>IF(OR(B108&lt;&gt;"",J108&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J108" s="63"/>
+      <c r="J108" s="61"/>
       <c r="K108" s="45"/>
     </row>
   </sheetData>
@@ -4803,6 +5255,35 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="PBrush" shapeId="2050" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>1457325</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>6200775</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>3162300</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="PBrush" shapeId="2050" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4812,7 +5293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:K45"/>
   <sheetViews>
@@ -4820,49 +5301,49 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.19921875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="72.25" style="9" customWidth="1"/>
     <col min="2" max="2" width="11" style="9"/>
-    <col min="3" max="3" width="13.796875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="11.296875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="9" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="9" customWidth="1"/>
     <col min="5" max="7" width="11" style="9"/>
     <col min="8" max="11" width="11" style="9" hidden="1" customWidth="1"/>
     <col min="12" max="16384" width="11" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A1" s="97" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="99"/>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="96"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="16"/>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="102"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99"/>
       <c r="F2" s="17"/>
     </row>
-    <row r="3" spans="1:11" ht="62.4">
+    <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="16"/>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="108"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="17"/>
       <c r="H3" s="9" t="s">
         <v>18</v>
@@ -4877,7 +5358,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.2">
+    <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>44</v>
       </c>
@@ -4905,7 +5386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="78.599999999999994" thickBot="1">
+    <row r="5" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>45</v>
       </c>
@@ -4913,11 +5394,11 @@
       <c r="C5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="109" t="str">
+      <c r="D5" s="106" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="110"/>
+      <c r="E5" s="107"/>
       <c r="F5" s="17"/>
       <c r="H5" s="9" t="s">
         <v>22</v>
@@ -4932,7 +5413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="31.8" thickBot="1">
+    <row r="6" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
@@ -4954,7 +5435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="47.4" thickBot="1">
+    <row r="7" spans="1:11" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>11</v>
       </c>
@@ -4962,12 +5443,12 @@
       <c r="C7" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="95" t="str">
+      <c r="D7" s="92" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="95"/>
-      <c r="F7" s="96"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="93"/>
       <c r="H7" s="9" t="s">
         <v>24</v>
       </c>
@@ -4981,7 +5462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="46.8">
+    <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>53</v>
       </c>
@@ -5000,7 +5481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="46.8">
+    <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>12</v>
       </c>
@@ -5019,7 +5500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="31.8" thickBot="1">
+    <row r="10" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>36</v>
       </c>
@@ -5038,7 +5519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I11" s="9" t="s">
         <v>32</v>
       </c>
@@ -5049,7 +5530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.2" thickBot="1">
+    <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I12" s="9" t="s">
         <v>37</v>
       </c>
@@ -5060,15 +5541,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="97" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="99"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="96"/>
       <c r="I13" s="9" t="s">
         <v>33</v>
       </c>
@@ -5079,7 +5560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.2" thickBot="1">
+    <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -5096,17 +5577,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="16"/>
-      <c r="C15" s="100" t="s">
+      <c r="C15" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="102"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
       <c r="J15" s="9">
         <v>12</v>
       </c>
@@ -5114,7 +5595,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="67.05" customHeight="1">
+    <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>47</v>
       </c>
@@ -5138,7 +5619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1">
+    <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>44</v>
       </c>
@@ -5146,12 +5627,12 @@
       <c r="C17" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="103" t="str">
+      <c r="D17" s="100" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="104"/>
-      <c r="F17" s="105"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="102"/>
       <c r="J17" s="9">
         <v>14</v>
       </c>
@@ -5159,7 +5640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="78.599999999999994" thickBot="1">
+    <row r="18" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>48</v>
       </c>
@@ -5167,12 +5648,12 @@
       <c r="C18" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="95" t="str">
+      <c r="D18" s="92" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="95"/>
-      <c r="F18" s="96"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="93"/>
       <c r="J18" s="9">
         <v>15</v>
       </c>
@@ -5180,7 +5661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>10</v>
       </c>
@@ -5199,7 +5680,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="63" thickBot="1">
+    <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>51</v>
       </c>
@@ -5221,7 +5702,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H21" s="9" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>LE</v>
@@ -5238,122 +5719,122 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K22" s="9">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K23" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K24" s="9">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K25" s="9">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K26" s="9">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K27" s="9">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K28" s="9">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K29" s="9">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K30" s="9">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K31" s="9">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K32" s="9">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="11:11">
+    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K33" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="11:11">
+    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K34" s="9">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="11:11">
+    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K35" s="9">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="11:11">
+    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K36" s="9">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="11:11">
+    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K37" s="9">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="11:11">
+    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K38" s="9">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="11:11">
+    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K39" s="9">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="11:11">
+    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K40" s="9">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="11:11">
+    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K41" s="9">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="11:11">
+    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K42" s="9">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="11:11">
+    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K43" s="9">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="11:11">
+    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K44" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="11:11">
+    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K45" s="9" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
@@ -5373,12 +5854,173 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1030" r:id="rId4" name="Drop Down 6">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>962025</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>2028825</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>1419225</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1031" r:id="rId5" name="Drop Down 7">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>2019300</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>962025</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>1657350</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>1419225</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1032" r:id="rId6" name="Drop Down 8">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>962025</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>1666875</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>1419225</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1035" r:id="rId7" name="Drop Down 11">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>962025</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>1666875</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>1419225</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1026" r:id="rId8" name="Drop Down 2">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>2066925</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>466725</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1028" r:id="rId9" name="Drop Down 4">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>2085975</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>1724025</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>466725</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1029" r:id="rId10" name="Drop Down 5">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>466725</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
@@ -5386,58 +6028,58 @@
       <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="9" customWidth="1"/>
-    <col min="2" max="2" width="22.19921875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="17.296875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="10.796875" style="9"/>
-    <col min="5" max="5" width="11.69921875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.69921875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="22.25" style="9" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="9"/>
+    <col min="5" max="5" width="11.75" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="9" customWidth="1"/>
     <col min="7" max="7" width="11" style="9" customWidth="1"/>
     <col min="8" max="8" width="24.5" style="9" customWidth="1"/>
-    <col min="9" max="9" width="22.19921875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="20.69921875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="22.25" style="9" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="9" customWidth="1"/>
     <col min="11" max="11" width="44.5" style="9" customWidth="1"/>
-    <col min="12" max="16384" width="10.796875" style="9"/>
+    <col min="12" max="16384" width="10.75" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="111" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="111" t="s">
+      <c r="C1" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="111" t="s">
+      <c r="E1" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="111" t="s">
+      <c r="F1" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="111" t="s">
+      <c r="G1" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="112" t="s">
+      <c r="H1" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
       <c r="H2" s="23" t="s">
         <v>65</v>
       </c>
@@ -5448,7 +6090,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="25" customFormat="1">
+    <row r="3" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>69</v>
       </c>
@@ -5472,7 +6114,7 @@
       <c r="I3" s="24"/>
       <c r="J3" s="24"/>
     </row>
-    <row r="4" spans="1:11" s="25" customFormat="1">
+    <row r="4" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>57</v>
       </c>
@@ -5500,7 +6142,7 @@
       </c>
       <c r="J4" s="26"/>
     </row>
-    <row r="5" spans="1:11" s="25" customFormat="1">
+    <row r="5" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>77</v>
       </c>
@@ -5528,7 +6170,7 @@
       </c>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:11" s="25" customFormat="1">
+    <row r="6" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>58</v>
       </c>
@@ -5560,7 +6202,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="25" customFormat="1" ht="27.6">
+    <row r="7" spans="1:11" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>80</v>
       </c>
@@ -5588,7 +6230,7 @@
       </c>
       <c r="J7" s="26"/>
     </row>
-    <row r="8" spans="1:11" s="25" customFormat="1" ht="27.6">
+    <row r="8" spans="1:11" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>82</v>
       </c>
@@ -5616,7 +6258,7 @@
       </c>
       <c r="J8" s="26"/>
     </row>
-    <row r="9" spans="1:11" s="25" customFormat="1">
+    <row r="9" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>84</v>
       </c>
@@ -5644,7 +6286,7 @@
       </c>
       <c r="J9" s="26"/>
     </row>
-    <row r="10" spans="1:11" s="25" customFormat="1">
+    <row r="10" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>86</v>
       </c>
@@ -5670,7 +6312,7 @@
       </c>
       <c r="J10" s="26"/>
     </row>
-    <row r="11" spans="1:11" s="25" customFormat="1" ht="27.6">
+    <row r="11" spans="1:11" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>89</v>
       </c>
@@ -5698,7 +6340,7 @@
       </c>
       <c r="J11" s="26"/>
     </row>
-    <row r="12" spans="1:11" s="25" customFormat="1">
+    <row r="12" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>91</v>
       </c>
@@ -5726,7 +6368,7 @@
       </c>
       <c r="J12" s="26"/>
     </row>
-    <row r="13" spans="1:11" ht="62.4">
+    <row r="13" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>93</v>
       </c>
@@ -5753,7 +6395,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>97</v>
       </c>
@@ -5777,7 +6419,7 @@
       </c>
       <c r="J14" s="29"/>
     </row>
-    <row r="15" spans="1:11" ht="31.2">
+    <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>99</v>
       </c>
@@ -5804,7 +6446,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="93.6">
+    <row r="16" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
         <v>103</v>
       </c>
@@ -5833,7 +6475,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="27.6">
+    <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>106</v>
       </c>
@@ -5862,12 +6504,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
         <v>113</v>
       </c>
@@ -5880,7 +6522,7 @@
       <c r="D21" s="37"/>
       <c r="E21" s="37"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
         <v>114</v>
       </c>
@@ -5893,7 +6535,7 @@
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
         <v>115</v>
       </c>
@@ -5906,7 +6548,7 @@
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
     </row>
-    <row r="24" spans="1:11" ht="31.2">
+    <row r="24" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
         <v>116</v>
       </c>
@@ -5919,7 +6561,7 @@
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
         <v>117</v>
       </c>
@@ -5932,7 +6574,7 @@
       <c r="D25" s="40"/>
       <c r="E25" s="40"/>
     </row>
-    <row r="26" spans="1:11" ht="62.4">
+    <row r="26" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
         <v>118</v>
       </c>
